--- a/data/trans_dic/P33B_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1193430101858229</v>
+        <v>0.1203646776399023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2190197605135882</v>
+        <v>0.2195305354761476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1794999711747517</v>
+        <v>0.1779113216608572</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1737169505680111</v>
+        <v>0.1773963920644797</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.268428348415286</v>
+        <v>0.2688249670395441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2165694093749337</v>
+        <v>0.2143832221092073</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09474183579224993</v>
+        <v>0.09421038003797465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1840587685688986</v>
+        <v>0.1844484304939737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1462177802564578</v>
+        <v>0.1442028534395288</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1330448987725073</v>
+        <v>0.1346185688903181</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2252330877452419</v>
+        <v>0.2245872610016098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1743951049332232</v>
+        <v>0.1726155871020331</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08439223915291019</v>
+        <v>0.08452474846744677</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1470978851535447</v>
+        <v>0.1473134463777973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1215928802819283</v>
+        <v>0.1233569813085638</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1320131445927216</v>
+        <v>0.1331613818453727</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1983549000095294</v>
+        <v>0.1955168878388112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1554120357949744</v>
+        <v>0.1576877669395707</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1268701705504312</v>
+        <v>0.1262810468854761</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2090800281719429</v>
+        <v>0.2111917451952269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.177790016630669</v>
+        <v>0.1765222656552812</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1709844161597182</v>
+        <v>0.1713643359460158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2539971803613015</v>
+        <v>0.2542246555264828</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2075519809882175</v>
+        <v>0.2085094387435137</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82302</v>
+        <v>83007</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>160363</v>
+        <v>160737</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>255215</v>
+        <v>252956</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>119800</v>
+        <v>122338</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>196539</v>
+        <v>196829</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>307921</v>
+        <v>304812</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>99376</v>
+        <v>98819</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>197097</v>
+        <v>197514</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>309946</v>
+        <v>305675</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139553</v>
+        <v>141204</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>241188</v>
+        <v>240497</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>369675</v>
+        <v>365903</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67773</v>
+        <v>67880</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>119482</v>
+        <v>119657</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>196413</v>
+        <v>199262</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106016</v>
+        <v>106938</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>161116</v>
+        <v>158810</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>251042</v>
+        <v>254718</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>125609</v>
+        <v>125026</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>233699</v>
+        <v>236060</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>374748</v>
+        <v>372076</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>169285</v>
+        <v>169661</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>283905</v>
+        <v>284160</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>437481</v>
+        <v>439499</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
     </row>
     <row r="24">
